--- a/cases_excel.xlsx
+++ b/cases_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>数据库连接地址</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>delete from t_user;|truncate table t_user;</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>t_bbg_order</t>
@@ -77,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -121,6 +118,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -136,22 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +162,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,82 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -291,31 +288,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,145 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +473,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,15 +496,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,30 +526,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,151 +549,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1086,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1155,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="17.6" customHeight="1" spans="1:7">
+    <row r="4" ht="17.6" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1166,24 +1163,18 @@
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" ht="17.6" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" ht="17.6" customHeight="1" spans="1:6">
       <c r="A6" s="5"/>
